--- a/python_basics/matplotlib_examples/my_table.xlsx
+++ b/python_basics/matplotlib_examples/my_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10011485_polimi_it/Documents/Documenti/PythonProjects/General_Python/matplotlib_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10011485_polimi_it/Documents/Documenti/PythonProjects/NEXTSCREEN/python_basics/matplotlib_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC10480079DB42305ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99A3D4EB-9EA2-49FB-BA56-2140E7AAE1F4}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC10480079DB42305ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A256163D-76B4-45F5-A0DE-5ABD5E60CD69}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>time</t>
   </si>
   <si>
-    <t>Intensisty</t>
+    <t>Intensity</t>
   </si>
 </sst>
 </file>
